--- a/big-data/big-data-capstone/project/data/beer_n_Somersby Apple Cider.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Somersby Apple Cider.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biroholik(4,446)
+          <t>Biroholik(4,453)
 🇵🇱Sosnowiec, Poland, Poland
 3.0October 1, 2021
 Somersby Apple Cider by Carlsberg Group
@@ -696,7 +696,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dunklermessias(2,283)
+          <t>dunklermessias(2,305)
 🇩🇪Germany
 2.0November 21, 2020
 Cider at the sea. Sweet, red apples, sweet. And crisp. Once again_: quite artificial.
@@ -827,7 +827,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>vladeath(3,204)
+          <t>vladeath(3,214)
 🇷🇺Russia
 2.1September 11, 2020
 Another faceless commercial cider. Sweetish, sourness, notes of apple juice. high carbonation. sweet acidity in the aftertaste.
@@ -960,7 +960,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kolemkoukolem(3,037)
+          <t>kolemkoukolem(3,041)
 🇨🇿Pilsen, Czech Republic
 1.3March 18, 2020
 # 1904; 3/2020. Arteficial green apple aroma. Gold, briliant body. Arteficial green apple flavor, crispy, honey. Sweet and arteficial cider. 0,3 l, bottle, market, Pilsen (Bohemia, CZ).
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SHIG(11,157)
+          <t>SHIG(11,158)
 🇺🇸Hampton, United States
 3.2January 20, 2020
 Bottle: Poured a carbonated bubble golden with white head that dissipate fast. Aroma is sweet apples. Taste is tooth decaying sweet apples.
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lithilorn(568)
+          <t>lithilorn(569)
 🇵🇹Covilhã, Portugal
 2.5December 23, 2019
 Pale golden body and no head. Sweet apple juice aroma. Low bitter and sour taste, sweet apple. fizzy carbonation. An average cider.
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>datrael(1,462)
+          <t>datrael(1,464)
 🇵🇱Krakow, Poland
 2.1September 23, 2019
 W aromacie guma jabłkowa. W smaku słodkie, chemicznie jabłkowe, guma balonowa. Pijalność średnia, dość zamulające. Ogólnie nieco męczące
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>YantarCoast(3,965)
+          <t>YantarCoast(3,969)
 🇷🇺Moscow, Russia
 2.5April 3, 2019
 330ml can. Pours apple juice yellow. Aroma is sweet apple juice. Taste is heavy sweet, sugar, green apples. It’s ok, just too sweet.
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>alex_leit(14,173)
+          <t>alex_leit(14,174)
 🇧🇾Minsk, Belarus
 1.9August 26, 2018
 Bottle. Aromas: apple, sweet and too pure. Taste: too sweet, slightly spicy, green apple, do not forget to chill, no more.
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>danlo(9,164)
+          <t>danlo(9,170)
 🇬🇧Darlington, England
 2.4August 26, 2018
 330ml bottle from BWS, Queanbeyan. Golden colour, short-lived bubbly white foam head and fleshy green apple aroma. Taste is green apple flavour, some sugary sweetness, apple flesh.…
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fisler(2,404)
+          <t>Fisler(2,408)
 🇩🇪Bamberg, Germany
 2.0June 17, 2018
 Im Trunk nicht süß, eher herb, leicht sauer. Sehr perlig, spritzig. Im Aroma leider sehr künstlich, so massiv kann kein natürliches Getränk nach Apfel riechen.
@@ -3130,7 +3130,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>nathanvc(4,818)
+          <t>nathanvc(4,827)
 🇧🇪Gent, Belgium
 1.3May 19, 2018
 Can from Colruyt. Clear pale yellow, fizzing, no head. Industrial aroma of apple juice, apple wine, sugar, cake. It tastes heavy sugary sweet, lots of apple juice, cloying into the finish until a…
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GRM(6,684)
+          <t>GRM(6,689)
 🇨🇦Aylmer, Canada
 1.5April 7, 2018
 Glass, 4-ounce, during the Festibière, savoured on June 10 2017; eye: straw, clear, no effervescence, no lacing; nose: apple, sugar; mouth: apple, sugar, finale in apple, light body, good…
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BojanM(361)
+          <t>BojanM(362)
 🇧🇦Banja Luka, Bosnia and Herzegovina
 1.3March 29, 2018
 Zlatno zuta boja, veoma svijetlo. Skoro bez pjene. Aroma jabuke, jabukovog sirćeta i trule jabuke. Sladak okus, bez gorčine. Jake karbonizacije. Mislim da sajderima nije mjesto n…
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>georgibonchev(229)
+          <t>georgibonchev(231)
 2.8March 17, 2018
 I was supriced to find ciders in this beer rating site, so this drink is related somehow to beer? Anyway, it is good refreshing drink for the summer. Apple aroma and sweet taste.
 Aroma
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cmacklin(3,519)
+          <t>cmacklin(3,523)
 🇨🇦Lethbridge, Canada
 2.2February 9, 2018
 500ml can. Pours a clear pale yellow with a thin, fizzy, short lived, white head that fully dissipates. Sweet fruity aroma and flavour of green apples and sugar. Light body with a sticky…
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Holmen1(11,789)
+          <t>Holmen1(11,792)
 🇳🇴Stavanger, Norway
 2.5September 3, 2017
 Dag 4 på slipp med Fridtjofe, og vi jobber på sprwng for å bli ferdige, men tid til en rating må vi ta oss. Klar lys gylden med kort skum. Dufter og smaker som billig, filtrert eplejuice.…
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tmoney99(19,926)
+          <t>Tmoney99(19,929)
 🇺🇸Cincinnati, United States
 2.5July 8, 2017
 Bottle. Poured clear light amber color with a minimal head that diminished slowly with fair legs. Medium fruit sweet apple aroma. Medium body with a smooth texture and soft legs.…
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>weihenweizen(6,655)
+          <t>weihenweizen(6,658)
 🇺🇸Charleston, United States
 3.6July 6, 2017
 Refrigerated 0.33 ml aluminum can poured into a glass. clear golden with small white head. Rich apple aroma, medium body, light carbonation, and little lacing. Taste is slightly rich apple…
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rubin77(7,796)
+          <t>Rubin77(7,802)
 🇧🇪Brussels, Belgium
 2.2April 17, 2017
 F: thin, white, quick gone.
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>azzurro(2,100)
+          <t>azzurro(2,102)
 🇨🇦Ottawa, Canada
 3.6April 12, 2017
 Light taste, very good cider. Not a bad first cider for me, yet nothing particular to remember.
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Zlotta(8,030)
+          <t>Zlotta(8,034)
 🇩🇪Hagen, Germany
 2.5March 25, 2017
 Sampled from 0.33 l can, best before July 2017. Clear, pale golden, no head. Sweetish, a little sourish, moderately fruity aroma of apple juice. Rather sweet, just minimally sourish,…
@@ -5362,7 +5362,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ritzn(4,195)
+          <t>Ritzn(4,196)
 🇩🇪Germany
 2.4March 6, 2017
 Clear golden with no head. Aroma is sweet green apple. Taste is artificial apple sweetness. Reminds me also of the green Haribo apple rings. Mouthfeel is pure lemonade. Meh.
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>deanso(15,168)
+          <t>deanso(15,171)
 🇬🇧Doncaster, England
 2.2February 10, 2017
 25cl bottle from Tops.
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>hvn(561)
+          <t>hvn(562)
 🇬🇱Nuuk, Greenland
 2.7January 2, 2017
 Barwa słomkowa, klarowne. Piana rzadka, szybko znika. Nagazowanie jak w napoju. Aromat cydru, smak zresztą podobny. Smaczne, gasi pragnienie ale daleko temu do…
@@ -6341,7 +6341,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MatiF96(1,429)
+          <t>MatiF96(1,430)
 🇵🇱Poland
 2.3February 24, 2019
 Uzupełnienie profilu
@@ -7194,7 +7194,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>hrabren(6,448)
+          <t>hrabren(6,451)
 🇭🇷Zagreb, Croatia
 1.0April 22, 2016
 This is not a beer. Get your priorities straight! Very clear golden with greenish tint, looks like apple juice. It foams but you can’t call it a head. Apple and pear, cabbage aroma, some other…
@@ -7457,7 +7457,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GuideDogSaint(3,140)
+          <t>GuideDogSaint(3,141)
 🇨🇳Xiamen, China
 1.3March 12, 2016
 330ml can from a 7-11 in Jincheng, Jinmen Island, Taiwan. Pours pale yellow gold. Aroma of apple sweets. Tastes of cardboard.
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Vighals(8,910)
+          <t>Vighals(8,916)
 🇳🇴Sørumsand, Norway
 2.0March 11, 2016
 Gulbrun klar med lavt hvitt skum som fort forsvinner. Lukter eplesaft, juice. Søt smak, eple er der sammen med lime. Litt for søt.
@@ -8245,7 +8245,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>colui72(3,999)
+          <t>colui72(4,004)
 🇭🇰Yuen Long, Hong Kong
 2.2July 5, 2015
 Very pale golden. Sweet and acidic apple flavour. Lacks of body and character. Perfect for a quick 7 Eleven drink in summer.
@@ -8702,7 +8702,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>tomer(5,782)
+          <t>tomer(5,787)
 🇮🇱Rishon Le Zion, Israel
 2.8January 28, 2015
 Bottle, clear deep yellow color, aroma and flavor of freshly cut apples, medium sweetness and zesty sourness simple but very easy to drink and highly refreshing.
@@ -9029,7 +9029,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>WillemsUrenkel(4,166)
+          <t>WillemsUrenkel(4,168)
 🇩🇪Oldenburg, Germany
 2.1December 24, 2014
 0,33 l bottle. Golden in the glass. Apple on the nose. Taste is apple, sweet apple. High carbonation. Nothing more.
@@ -9159,7 +9159,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>zvsn(7,780)
+          <t>zvsn(7,783)
 🇮🇱Israel
 2.0December 15, 2014
 Bottle. Clear yellow golden with a small head. Aroma of pears, apples and lemon. Very sweet, very artificial flavors of apples and fruits nectar. Syrupy and not very pleasant.
@@ -9224,7 +9224,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>rayaron(6,664)
+          <t>rayaron(6,665)
 🇮🇱Kfar Saba, Israel
 1.8December 14, 2014
 Bottle sample. Clear very light yellowish with no head. Aroma of sweet red apple, sugary, some lemon notes. Very sweet flavor, red apple, sugary, syrupy, quite artificial, very sweet finish.…
@@ -9617,7 +9617,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>bhensonb(20,708)
+          <t>bhensonb(20,714)
 🇺🇸Woodland, United States
 2.0October 8, 2014
 Bottle from Merkur Hoher Markt in Vienna. Pours very light gold with a very slight white head. Light apple aroma. Skin. Flavor has too much sugar and not enough apple skin.
@@ -10269,7 +10269,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Aurelius(6,787)
+          <t>Aurelius(6,789)
 🇺🇸Tallahassee, United States
 2.8August 2, 2014
 Standard long neck, clear. Very pale and clear. Apple, Pl - doh aroma, lightly sweet. Sweet, but still crisp enough. Reminds me of gala apples. Very light astringency. Earthy apple aftertaste.…
@@ -10664,7 +10664,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>czar(14,062)
+          <t>czar(14,066)
 🇨🇦Québec, Canada
 1.6June 16, 2014
 can. pours almost clear bright yellow with a collapsing small white cap, very bubble appearance. intense artificial pear aroma, sweet apple juice, plain sugars, little to no yeast, citric…
@@ -11646,7 +11646,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>wlajwl(11,496)
+          <t>wlajwl(11,503)
 🇺🇸Quad Cities, United States
 2.4February 25, 2014
 Aroma is apples and a pervasive fruit perfume. The flavor is light apples, citrus and cloying sweetness in the finish. It wasn’t horrendous but based on the almost dozen ingredients, it didn…
@@ -12428,7 +12428,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Rasmus40(31,650)
+          <t>Rasmus40(31,652)
 🇩🇰Beder, Aarhus, Denmark
 1.4September 20, 2013
 Bottle from a supermarket, Ayia Napa, Cyprus. Clear pale yellow with a white head. Aroma is sweet, artificial apple, sugary and notes of Hubba Bubba apple flavored chewing gum. Flavor is…
@@ -12625,7 +12625,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>nilsas(7,961)
+          <t>nilsas(7,971)
 🇳🇴Bryne, Norway
 2.4August 15, 2013
 Frisk duft av eple. Lys klar gyllen farge. Lite skum. God sprudlende fruktig smak av eple. Noe søt.
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Gurthnar(10,578)
+          <t>Gurthnar(10,580)
 🇸🇰Bratislava, Slovakia
 2.3August 11, 2013
 Can. Clear yellow colour. Aroma sweet red apples. Taste quite well balanced sweet and sour, though a bit artificially sugary. Good simple commercial thirst quencher.
@@ -13146,7 +13146,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FatPhil(23,239)
+          <t>FatPhil(23,248)
 🇪🇪Tallinn, Estonia
 1.6July 20, 2013
 330ml bottle (Rimi, Tallinn)…
@@ -13212,7 +13212,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>JoeMcPhee(11,816)
+          <t>JoeMcPhee(11,817)
 🇨🇦Toronto, ON, Canada
 1.3July 12, 2013
 Very pale straw colour. Bubbly appearance. The aroma is pretty simple mixture of apples and pear. Sweet and simple with a bit of lingering sugary flavour. Very simple and not at all good.…
@@ -13344,7 +13344,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>graziano85(744)
+          <t>graziano85(745)
 🇭🇺Budapest, Hungary
 2.3July 3, 2013
 Very pale yellow colour.
@@ -13477,7 +13477,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>JefVerstraete(6,334)
+          <t>JefVerstraete(6,341)
 🇧🇪Belgium
 0.9June 7, 2013
 Can, 33cl. Very artificial cider. Full of sugar, sweeteners and other chemical stuff. Very sweet, like candy. Not enjoyable.
@@ -14657,7 +14657,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>mabel(11,305)
+          <t>mabel(11,324)
 🇨🇦Toronto, Canada
 3.2December 31, 2012
 [4973-20121127] Can. Peary apple juice sweetness in the aroma. Clear, light yellow orange body with a quick foamy white head. More sweet apple skins in the flavour. Light-medium…
@@ -14723,7 +14723,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ALLOVATE(3,707)
+          <t>ALLOVATE(3,708)
 🇦🇺Perth, Australia
 1.6December 28, 2012
 Soda water in appearance with frighteningly big and adhesive bubbles. Medium gold and bright. Strong note of berry and watermelon fruit roll-ups on the nose with just a touch - and I…
@@ -14855,7 +14855,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>jercraigs(14,041)
+          <t>jercraigs(14,046)
 🇨🇦Toronto, Canada
 3.1December 13, 2012
 2012-11-27. Crisp yellow body, frothy white foam when poured dissipates. Sweet fruity apple aroma, like an apple Jolly Rancher dissolved in apple juice, nots of sweeter apple cider,…
@@ -14921,7 +14921,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>nuplastikk(8,611)
+          <t>nuplastikk(8,613)
 🇺🇸Madison, United States
 1.8December 9, 2012
 I got paid 20 dollars or some bullshit to attend a focus group for this bullshit product.  I’m straight up rating this 12oz bottle in 3 sips, because that’s how it was intended to be drank.  Flat…
@@ -14987,7 +14987,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Metalchopz(6,095)
+          <t>Metalchopz(6,096)
 🇨🇦Cantley, Canada
 3.1November 27, 2012
 Single can from the LCBO. Pours a very pale golden colour. The head is decent, kind of foamy and does last longer than most ciders. Beautiful fresh Granny Smith nose with hints of pears.…
@@ -15445,7 +15445,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Boutip(8,685)
+          <t>Boutip(8,687)
 🇨🇦Gatineau, Canada
 3.0October 29, 2012
 Can: Poured a sparkling super yellow color cider. Aroma and taste are quite sweet with strong bubblyness factor. Not a lot of complexity and quite a lot of residual sugar. Easy drinking cid…
@@ -15708,7 +15708,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>robinvboyer(6,820)
+          <t>robinvboyer(6,823)
 🇨🇦Sturgeon Falls, Canada
 1.6October 5, 2012
 Meh, this is straight up alcoholic apple juice, boredring on sickly sweet. Blech.
@@ -16230,7 +16230,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AndySnow(13,883)
+          <t>AndySnow(13,897)
 🇸🇪Huddinge, Sweden
 1.8August 23, 2012
 Can. Pale golden colour with no head. Sweet apple aroma. Flavour is very sweet, apple.
@@ -16492,7 +16492,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Marduk(17,800)
+          <t>Marduk(17,850)
 🇪🇪Reval, Estonia
 2.0July 7, 2012
 330ml bottle. Clear golden color. Sweet, fizzy, apples in aroma. Very sweet, syrup, apples in flavor.
@@ -16753,7 +16753,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Gerbeer(6,367)
+          <t>Gerbeer(6,371)
 🇨🇦Nanoose Bay, Canada
 2.6June 14, 2012
 500 ml can. Pours a clear gold apple juice color with little head that dissipates quickly though maintains good carbonation. Aroma just like apple juice. Taste is just like apple juice. No…
@@ -16886,7 +16886,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Sigmund(12,250)
+          <t>Sigmund(12,264)
 🇳🇴Tau, Norway
 0.9June 4, 2012
 330 ml clear bottle, Cardinal Pub &amp; Bar, Stavanger.ABV is 4.5%.  Pale golden colour, pours fizzy with a short-lived white head. Artificial and sugary "apple" aroma. Tastes like an alcopop full…
@@ -17148,7 +17148,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Spab(8,856)
+          <t>Spab(8,860)
 🇨🇦Toronto, Canada
 2.1May 12, 2012
 500 ml can from LCBO.  Pours a clear pale golden colour with a decent-sized (especially for a cider) white head.  Aroma is sweet apple candy.  Taste is also ridiculously sweet and…
@@ -17411,7 +17411,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Grzesiek79(6,707)
+          <t>Grzesiek79(6,708)
 🇵🇱Radom, Poland
 1.3January 10, 2013
 cooked vegetables, leaves, licorice, cheese, dough, herbs, citrus, bread, nuts, pale, cloudy, white foam, heavy cloying sweetness, lightly bitter, medium sourness, medium body,…
@@ -17741,7 +17741,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Cunningham(12,661)
+          <t>Cunningham(12,665)
 🇳🇴Halden, Norway
 2.0March 1, 2012
 Bottle. Light yellow colour with a small bubbly white head. Sweet apple nose. Massive sweet apple flavour. Alcopop!
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>funcut(1,304)
+          <t>funcut(1,306)
 🇭🇷SIBENIK, Croatia
 1.4October 20, 2010
 it taste like apple juice so i dont think that i will drink this again ... for this price i can buy 2 litre different apple juice ...
@@ -18461,7 +18461,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Marko(14,001)
+          <t>Marko(14,020)
 🇨🇿Prague, Czech Republic
 1.5June 18, 2010
 0.33l bottle, distributed by Carlsberg Croatia. Pale yellow body with steady streams of carbonation and a tiny white head that went away fast. Distinct appley nose, like apple juice. What th…
@@ -18527,7 +18527,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>chrisv10(23,975)
+          <t>chrisv10(23,978)
 🇩🇰Denmark
 1.5June 13, 2010
 33 cl can. Cleat yellow with white head. Flavour and aroma is very sweet   and apples.
@@ -18657,7 +18657,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MiP(19,171)
+          <t>MiP(19,172)
 🇩🇰Sønderborg, Denmark
 1.9December 31, 2009
 Can, 4.7%. Sweet apple soft drink aroma. Clear golden colour, no head. Sweet flavour, tastes like apple candy. Quite sweet, but somehow OK balanced. Better than expected, but gets…
@@ -18854,7 +18854,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>joergen(39,716)
+          <t>joergen(39,740)
 🇩🇰Frederiksberg, Denmark
 1.8May 3, 2009
 Can at home.
@@ -19051,7 +19051,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ungstrup(48,901)
+          <t>Ungstrup(48,914)
 🇩🇰Citizen of the universe, Denmark
 2.3December 17, 2008
 Bottled. A light golden cider - very sparkling. The aroma is refreshing of green apples. The flavor is very sweet with strong notes of green apples with hints of wood in the finish, but the…
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Pinball(13,783)
+          <t>Pinball(13,785)
 🇩🇰Copenhagen, Denmark
 2.3October 10, 2008
 can, 33cl.
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>gunnfryd(19,756)
+          <t>gunnfryd(19,766)
 🇳🇴Kristiansand, Norway
 1.4September 1, 2008
 Can. Pale golden / yellow colour with no head. Aroma is mature , apple, sugar. Flavour is mature apple, sugar. Thin cider.
@@ -20360,7 +20360,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>fonefan(70,891)
+          <t>fonefan(70,922)
 🇩🇰VestJylland, Denmark
 2.1July 1, 2008
 Can @ home.
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>charlotte(7,984)
+          <t>charlotte(7,988)
 🇩🇰rødovre, Denmark
 2.6May 11, 2008
 Pale yellow colour with no head.Aroma is really fresh with of appel a bit sweet but tasty and not so sour like many other ciders.
@@ -21081,7 +21081,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Plovmand(11,359)
+          <t>Plovmand(11,361)
 🇩🇰Grindsted, Denmark
 2.7May 4, 2008
 Bottle. Clear golden colour with fading head. Aroma and flavour is plain apples like a sodapop but its pretty refreshing.
@@ -21277,7 +21277,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Christian(16,455)
+          <t>Christian(16,456)
 🇩🇰Odense, Denmark
 1.4January 31, 2017
 Pale yellow with no head. Apple juice or even apple candy aroma. Sweet but refreshing apple juice flavour. I don?t drink sodapops, or alcopops. So this has nothing to offer me really.
@@ -21342,7 +21342,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>HenrikSoegaard(19,302)
+          <t>HenrikSoegaard(19,303)
 🇩🇰Randers, Denmark
 1.5April 21, 2008
 Bottle. Rubish. Very artificial. Aromas and colour are added, and still one of the ugliest ciders I have seen. Bad applejuice aroma and flavor. Oily palate.
